--- a/week 4/هفتگی.xlsx
+++ b/week 4/هفتگی.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,13 +583,13 @@
         <v>100</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(D2:H2)/5</f>
+        <f t="shared" ref="I2:I42" si="0">SUM(D2:H2)/5</f>
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A42" si="0">RANK(I3,I$2:I$42)</f>
+        <f t="shared" ref="A3:A42" si="1">RANK(I3,I$2:I$42)</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -614,13 +614,13 @@
         <v>90</v>
       </c>
       <c r="I3" s="2">
-        <f>SUM(D3:H3)/5</f>
+        <f t="shared" si="0"/>
         <v>86.666666666666657</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -645,13 +645,13 @@
         <v>73.333333333333329</v>
       </c>
       <c r="I4" s="2">
-        <f>SUM(D4:H4)/5</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -676,13 +676,13 @@
         <v>90</v>
       </c>
       <c r="I5" s="2">
-        <f>SUM(D5:H5)/5</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -707,13 +707,13 @@
         <v>70</v>
       </c>
       <c r="I6" s="2">
-        <f>SUM(D6:H6)/5</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -738,13 +738,13 @@
         <v>43.333333333333336</v>
       </c>
       <c r="I7" s="2">
-        <f>SUM(D7:H7)/5</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -769,13 +769,13 @@
         <v>60</v>
       </c>
       <c r="I8" s="2">
-        <f>SUM(D8:H8)/5</f>
+        <f t="shared" si="0"/>
         <v>60.666666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -800,13 +800,13 @@
         <v>76.666666666666671</v>
       </c>
       <c r="I9" s="2">
-        <f>SUM(D9:H9)/5</f>
+        <f t="shared" si="0"/>
         <v>59.333333333333336</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -831,13 +831,13 @@
         <v>86.666666666666671</v>
       </c>
       <c r="I10" s="2">
-        <f>SUM(D10:H10)/5</f>
+        <f t="shared" si="0"/>
         <v>58.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -862,13 +862,13 @@
         <v>53.333333333333336</v>
       </c>
       <c r="I11" s="2">
-        <f>SUM(D11:H11)/5</f>
+        <f t="shared" si="0"/>
         <v>58.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -893,13 +893,13 @@
         <v>66.666666666666657</v>
       </c>
       <c r="I12" s="2">
-        <f>SUM(D12:H12)/5</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -924,13 +924,13 @@
         <v>90</v>
       </c>
       <c r="I13" s="2">
-        <f>SUM(D13:H13)/5</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -955,13 +955,13 @@
         <v>100</v>
       </c>
       <c r="I14" s="2">
-        <f>SUM(D14:H14)/5</f>
+        <f t="shared" si="0"/>
         <v>57.333333333333336</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -986,13 +986,13 @@
         <v>80</v>
       </c>
       <c r="I15" s="2">
-        <f>SUM(D15:H15)/5</f>
+        <f t="shared" si="0"/>
         <v>57.333333333333336</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1017,13 +1017,13 @@
         <v>60</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(D16:H16)/5</f>
+        <f t="shared" si="0"/>
         <v>57.333333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1048,13 +1048,13 @@
         <v>76.666666666666671</v>
       </c>
       <c r="I17" s="2">
-        <f>SUM(D17:H17)/5</f>
+        <f t="shared" si="0"/>
         <v>56.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1079,13 +1079,13 @@
         <v>86.666666666666671</v>
       </c>
       <c r="I18" s="2">
-        <f>SUM(D18:H18)/5</f>
+        <f t="shared" si="0"/>
         <v>55.333333333333336</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1110,13 +1110,13 @@
         <v>56.666666666666664</v>
       </c>
       <c r="I19" s="2">
-        <f>SUM(D19:H19)/5</f>
+        <f t="shared" si="0"/>
         <v>55.333333333333336</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1141,13 +1141,13 @@
         <v>60</v>
       </c>
       <c r="I20" s="2">
-        <f>SUM(D20:H20)/5</f>
+        <f t="shared" si="0"/>
         <v>55.333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1172,13 +1172,13 @@
         <v>73.333333333333329</v>
       </c>
       <c r="I21" s="2">
-        <f>SUM(D21:H21)/5</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1203,13 +1203,13 @@
         <v>60</v>
       </c>
       <c r="I22" s="2">
-        <f>SUM(D22:H22)/5</f>
+        <f t="shared" si="0"/>
         <v>53.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1234,13 +1234,13 @@
         <v>86.666666666666671</v>
       </c>
       <c r="I23" s="2">
-        <f>SUM(D23:H23)/5</f>
+        <f t="shared" si="0"/>
         <v>49.333333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1265,13 +1265,13 @@
         <v>43.333333333333336</v>
       </c>
       <c r="I24" s="2">
-        <f>SUM(D24:H24)/5</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1296,13 +1296,13 @@
         <v>66.666666666666657</v>
       </c>
       <c r="I25" s="2">
-        <f>SUM(D25:H25)/5</f>
+        <f t="shared" si="0"/>
         <v>45.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1327,13 +1327,13 @@
         <v>60</v>
       </c>
       <c r="I26" s="2">
-        <f>SUM(D26:H26)/5</f>
+        <f t="shared" si="0"/>
         <v>45.333333333333329</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1358,13 +1358,13 @@
         <v>53.333333333333336</v>
       </c>
       <c r="I27" s="2">
-        <f>SUM(D27:H27)/5</f>
+        <f t="shared" si="0"/>
         <v>43.333333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1389,13 +1389,13 @@
         <v>26.666666666666668</v>
       </c>
       <c r="I28" s="2">
-        <f>SUM(D28:H28)/5</f>
+        <f t="shared" si="0"/>
         <v>43.333333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1420,13 +1420,13 @@
         <v>40</v>
       </c>
       <c r="I29" s="2">
-        <f>SUM(D29:H29)/5</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1451,13 +1451,13 @@
         <v>46.666666666666664</v>
       </c>
       <c r="I30" s="2">
-        <f>SUM(D30:H30)/5</f>
+        <f t="shared" si="0"/>
         <v>41.999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1482,13 +1482,13 @@
         <v>73.333333333333329</v>
       </c>
       <c r="I31" s="2">
-        <f>SUM(D31:H31)/5</f>
+        <f t="shared" si="0"/>
         <v>41.333333333333329</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1513,13 +1513,13 @@
         <v>53.333333333333336</v>
       </c>
       <c r="I32" s="2">
-        <f>SUM(D32:H32)/5</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1544,13 +1544,13 @@
         <v>73.333333333333329</v>
       </c>
       <c r="I33" s="2">
-        <f>SUM(D33:H33)/5</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1575,13 +1575,13 @@
         <v>50</v>
       </c>
       <c r="I34" s="2">
-        <f>SUM(D34:H34)/5</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1606,13 +1606,13 @@
         <v>40</v>
       </c>
       <c r="I35" s="2">
-        <f>SUM(D35:H35)/5</f>
+        <f t="shared" si="0"/>
         <v>37.333333333333336</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>SUM(D36:H36)/5</f>
+        <f t="shared" si="0"/>
         <v>35.333333333333329</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1668,13 +1668,13 @@
         <v>30</v>
       </c>
       <c r="I37" s="2">
-        <f>SUM(D37:H37)/5</f>
+        <f t="shared" si="0"/>
         <v>34.666666666666671</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1699,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>SUM(D38:H38)/5</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1730,13 +1730,13 @@
         <v>76.666666666666671</v>
       </c>
       <c r="I39" s="2">
-        <f>SUM(D39:H39)/5</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1761,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>SUM(D40:H40)/5</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1792,13 +1792,13 @@
         <v>23.333333333333332</v>
       </c>
       <c r="I41" s="2">
-        <f>SUM(D41:H41)/5</f>
+        <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>SUM(D42:H42)/5</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
     </row>
